--- a/①音量設定画面設計書＿20161008_ver1.0.xlsx
+++ b/①音量設定画面設計書＿20161008_ver1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14560" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="56">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -344,6 +344,80 @@
   </si>
   <si>
     <t>Imagebutton</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID:002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    ID:003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>音量設定</t>
+    <rPh sb="0" eb="4">
+      <t>オンリョウセッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>印をスライドさせることで音量を設定できる</t>
+    <rPh sb="0" eb="1">
+      <t>シルシ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>オンリョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認ボタンを押下するとID:002で設定した音量を確認できる</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>オンリョウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大西</t>
+    <rPh sb="0" eb="2">
+      <t>オオニシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面項目詳細を追記</t>
+    <rPh sb="0" eb="2">
+      <t>ガメンショウサイ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>コウモクショウサイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ツイキ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -637,34 +711,46 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
@@ -674,18 +760,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1406,7 +1480,7 @@
   <dimension ref="B3:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -1480,7 +1554,7 @@
       </c>
       <c r="J17" s="12"/>
       <c r="K17" s="5">
-        <v>42654</v>
+        <v>42655</v>
       </c>
     </row>
     <row r="18" spans="6:11">
@@ -1528,8 +1602,8 @@
   </sheetPr>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -1538,284 +1612,262 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22" t="str">
+      <c r="B1" s="25"/>
+      <c r="C1" s="29" t="str">
         <f>表紙!D3</f>
         <v>目覚ましアプリ</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="21" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="23">
+      <c r="F1" s="25"/>
+      <c r="G1" s="22">
         <v>42654</v>
       </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="21" t="s">
+      <c r="H1" s="23"/>
+      <c r="I1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="20" t="s">
+      <c r="J1" s="25"/>
+      <c r="K1" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="20"/>
+      <c r="L1" s="23"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="20" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="21" t="s">
+      <c r="D2" s="23"/>
+      <c r="E2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="25">
+      <c r="F2" s="25"/>
+      <c r="G2" s="26">
         <f>表紙!K17</f>
-        <v>42654</v>
-      </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="21" t="s">
+        <v>42655</v>
+      </c>
+      <c r="H2" s="27"/>
+      <c r="I2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="21"/>
-      <c r="K2" s="20" t="str">
+      <c r="J2" s="25"/>
+      <c r="K2" s="23" t="str">
         <f>表紙!K18</f>
         <v>大西</v>
       </c>
-      <c r="L2" s="20"/>
+      <c r="L2" s="23"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21" t="s">
+      <c r="B6" s="25"/>
+      <c r="C6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21" t="s">
+      <c r="D6" s="25"/>
+      <c r="E6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21" t="s">
+      <c r="F6" s="25"/>
+      <c r="G6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="24">
+      <c r="A7" s="21">
         <v>1</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="23">
+      <c r="B7" s="21"/>
+      <c r="C7" s="22">
         <v>42654</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="20" t="s">
+      <c r="D7" s="22"/>
+      <c r="E7" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20" t="s">
+      <c r="F7" s="23"/>
+      <c r="G7" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
+      <c r="A8" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="22">
+        <v>42655</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
     </row>
     <row r="11" spans="1:12" ht="43" customHeight="1">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:L16"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:L14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:L12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:L10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:L8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
@@ -1831,12 +1883,42 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G6:L6"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:L8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:L10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:L12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:L16"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:L14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:L15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1856,8 +1938,8 @@
   </sheetPr>
   <dimension ref="A1:L89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D35" sqref="D35:L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -1872,60 +1954,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="20" t="str">
+      <c r="B1" s="25"/>
+      <c r="C1" s="23" t="str">
         <f>表紙!D3</f>
         <v>目覚ましアプリ</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21" t="s">
+      <c r="D1" s="23"/>
+      <c r="E1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="23">
+      <c r="F1" s="25"/>
+      <c r="G1" s="22">
         <v>42654</v>
       </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="21" t="s">
+      <c r="H1" s="23"/>
+      <c r="I1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="20" t="s">
+      <c r="J1" s="25"/>
+      <c r="K1" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="20"/>
+      <c r="L1" s="23"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="20" t="str">
+      <c r="B2" s="25"/>
+      <c r="C2" s="23" t="str">
         <f>改版履歴!C2</f>
         <v>音量設定画面</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="21" t="s">
+      <c r="D2" s="23"/>
+      <c r="E2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="25">
+      <c r="F2" s="25"/>
+      <c r="G2" s="26">
         <f>表紙!K17</f>
-        <v>42654</v>
-      </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="21" t="s">
+        <v>42655</v>
+      </c>
+      <c r="H2" s="27"/>
+      <c r="I2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="21"/>
-      <c r="K2" s="20" t="str">
+      <c r="J2" s="25"/>
+      <c r="K2" s="23" t="str">
         <f>表紙!K18</f>
         <v>大西</v>
       </c>
-      <c r="L2" s="20"/>
+      <c r="L2" s="23"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="4" t="s">
@@ -2290,20 +2372,20 @@
       <c r="J29" s="1"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="33" t="s">
+      <c r="A31" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="2" t="s">
@@ -2315,428 +2397,442 @@
       <c r="C32" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="34" t="s">
+      <c r="D32" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="36"/>
+      <c r="B33" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="33"/>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="32"/>
+      <c r="B34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="36"/>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="32"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="36"/>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="32"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="36"/>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="32"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="36"/>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="32"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="36"/>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="32"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="36"/>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="31"/>
-      <c r="K40" s="31"/>
-      <c r="L40" s="32"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="36"/>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="31"/>
-      <c r="K41" s="31"/>
-      <c r="L41" s="32"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="35"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="36"/>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="32"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="35"/>
+      <c r="L42" s="36"/>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="31"/>
-      <c r="K43" s="31"/>
-      <c r="L43" s="32"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="35"/>
+      <c r="K43" s="35"/>
+      <c r="L43" s="36"/>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="31"/>
-      <c r="K44" s="31"/>
-      <c r="L44" s="32"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="35"/>
+      <c r="K44" s="35"/>
+      <c r="L44" s="36"/>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="31"/>
-      <c r="K45" s="31"/>
-      <c r="L45" s="32"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="35"/>
+      <c r="K45" s="35"/>
+      <c r="L45" s="36"/>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="31"/>
-      <c r="I46" s="31"/>
-      <c r="J46" s="31"/>
-      <c r="K46" s="31"/>
-      <c r="L46" s="32"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="35"/>
+      <c r="L46" s="36"/>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="31"/>
-      <c r="K47" s="31"/>
-      <c r="L47" s="32"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="35"/>
+      <c r="K47" s="35"/>
+      <c r="L47" s="36"/>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="31"/>
-      <c r="I48" s="31"/>
-      <c r="J48" s="31"/>
-      <c r="K48" s="31"/>
-      <c r="L48" s="32"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="35"/>
+      <c r="J48" s="35"/>
+      <c r="K48" s="35"/>
+      <c r="L48" s="36"/>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="31"/>
-      <c r="I49" s="31"/>
-      <c r="J49" s="31"/>
-      <c r="K49" s="31"/>
-      <c r="L49" s="32"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="36"/>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="31"/>
-      <c r="J50" s="31"/>
-      <c r="K50" s="31"/>
-      <c r="L50" s="32"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="35"/>
+      <c r="J50" s="35"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="36"/>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="31"/>
-      <c r="K51" s="31"/>
-      <c r="L51" s="32"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="35"/>
+      <c r="J51" s="35"/>
+      <c r="K51" s="35"/>
+      <c r="L51" s="36"/>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="31"/>
-      <c r="J52" s="31"/>
-      <c r="K52" s="31"/>
-      <c r="L52" s="32"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="35"/>
+      <c r="J52" s="35"/>
+      <c r="K52" s="35"/>
+      <c r="L52" s="36"/>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="31"/>
-      <c r="I53" s="31"/>
-      <c r="J53" s="31"/>
-      <c r="K53" s="31"/>
-      <c r="L53" s="32"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="35"/>
+      <c r="J53" s="35"/>
+      <c r="K53" s="35"/>
+      <c r="L53" s="36"/>
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="31"/>
-      <c r="F54" s="31"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="31"/>
-      <c r="I54" s="31"/>
-      <c r="J54" s="31"/>
-      <c r="K54" s="31"/>
-      <c r="L54" s="32"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="35"/>
+      <c r="J54" s="35"/>
+      <c r="K54" s="35"/>
+      <c r="L54" s="36"/>
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="31"/>
-      <c r="F55" s="31"/>
-      <c r="G55" s="31"/>
-      <c r="H55" s="31"/>
-      <c r="I55" s="31"/>
-      <c r="J55" s="31"/>
-      <c r="K55" s="31"/>
-      <c r="L55" s="32"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="35"/>
+      <c r="J55" s="35"/>
+      <c r="K55" s="35"/>
+      <c r="L55" s="36"/>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="31"/>
-      <c r="I56" s="31"/>
-      <c r="J56" s="31"/>
-      <c r="K56" s="31"/>
-      <c r="L56" s="32"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="35"/>
+      <c r="J56" s="35"/>
+      <c r="K56" s="35"/>
+      <c r="L56" s="36"/>
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="31"/>
-      <c r="G57" s="31"/>
-      <c r="H57" s="31"/>
-      <c r="I57" s="31"/>
-      <c r="J57" s="31"/>
-      <c r="K57" s="31"/>
-      <c r="L57" s="32"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="35"/>
+      <c r="J57" s="35"/>
+      <c r="K57" s="35"/>
+      <c r="L57" s="36"/>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="31"/>
-      <c r="F58" s="31"/>
-      <c r="G58" s="31"/>
-      <c r="H58" s="31"/>
-      <c r="I58" s="31"/>
-      <c r="J58" s="31"/>
-      <c r="K58" s="31"/>
-      <c r="L58" s="32"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="35"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="35"/>
+      <c r="I58" s="35"/>
+      <c r="J58" s="35"/>
+      <c r="K58" s="35"/>
+      <c r="L58" s="36"/>
     </row>
     <row r="60" spans="1:12">
-      <c r="A60" s="33" t="s">
+      <c r="A60" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B60" s="33"/>
-      <c r="C60" s="33"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="33"/>
-      <c r="F60" s="33"/>
-      <c r="G60" s="33"/>
-      <c r="H60" s="33"/>
-      <c r="I60" s="33"/>
-      <c r="J60" s="33"/>
-      <c r="K60" s="33"/>
-      <c r="L60" s="33"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="30"/>
+      <c r="I60" s="30"/>
+      <c r="J60" s="30"/>
+      <c r="K60" s="30"/>
+      <c r="L60" s="30"/>
     </row>
     <row r="89" spans="1:12">
-      <c r="A89" s="33" t="s">
+      <c r="A89" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B89" s="33"/>
-      <c r="C89" s="33"/>
-      <c r="D89" s="33"/>
-      <c r="E89" s="33"/>
-      <c r="F89" s="33"/>
-      <c r="G89" s="33"/>
-      <c r="H89" s="33"/>
-      <c r="I89" s="33"/>
-      <c r="J89" s="33"/>
-      <c r="K89" s="33"/>
-      <c r="L89" s="33"/>
+      <c r="B89" s="30"/>
+      <c r="C89" s="30"/>
+      <c r="D89" s="30"/>
+      <c r="E89" s="30"/>
+      <c r="F89" s="30"/>
+      <c r="G89" s="30"/>
+      <c r="H89" s="30"/>
+      <c r="I89" s="30"/>
+      <c r="J89" s="30"/>
+      <c r="K89" s="30"/>
+      <c r="L89" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="D55:L55"/>
+    <mergeCell ref="D44:L44"/>
+    <mergeCell ref="D45:L45"/>
+    <mergeCell ref="D46:L46"/>
+    <mergeCell ref="D47:L47"/>
+    <mergeCell ref="A31:L31"/>
+    <mergeCell ref="D54:L54"/>
+    <mergeCell ref="D49:L49"/>
+    <mergeCell ref="D38:L38"/>
+    <mergeCell ref="D39:L39"/>
+    <mergeCell ref="D40:L40"/>
+    <mergeCell ref="D41:L41"/>
+    <mergeCell ref="D42:L42"/>
+    <mergeCell ref="D43:L43"/>
     <mergeCell ref="A60:L60"/>
     <mergeCell ref="A89:L89"/>
     <mergeCell ref="D32:L32"/>
@@ -2753,20 +2849,18 @@
     <mergeCell ref="D52:L52"/>
     <mergeCell ref="D53:L53"/>
     <mergeCell ref="D48:L48"/>
-    <mergeCell ref="A31:L31"/>
-    <mergeCell ref="D54:L54"/>
-    <mergeCell ref="D49:L49"/>
-    <mergeCell ref="D38:L38"/>
-    <mergeCell ref="D39:L39"/>
-    <mergeCell ref="D40:L40"/>
-    <mergeCell ref="D41:L41"/>
-    <mergeCell ref="D42:L42"/>
-    <mergeCell ref="D43:L43"/>
-    <mergeCell ref="D55:L55"/>
-    <mergeCell ref="D44:L44"/>
-    <mergeCell ref="D45:L45"/>
-    <mergeCell ref="D46:L46"/>
-    <mergeCell ref="D47:L47"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/①音量設定画面設計書＿20161008_ver1.0.xlsx
+++ b/①音量設定画面設計書＿20161008_ver1.0.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
     <sheet name="改版履歴" sheetId="2" r:id="rId2"/>
-    <sheet name="Oplan画面" sheetId="3" r:id="rId3"/>
+    <sheet name="アラーム音設定画面" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$G$17:$H$18</definedName>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="58">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -289,16 +289,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>画面名称</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>メイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ImageView</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -308,13 +298,6 @@
   </si>
   <si>
     <t>ID:02</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>音量設定</t>
-    <rPh sb="0" eb="4">
-      <t>オンリョウセッテイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -347,21 +330,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ID:002</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    ID:003</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>音量設定</t>
-    <rPh sb="0" eb="4">
-      <t>オンリョウセッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>印をスライドさせることで音量を設定できる</t>
     <rPh sb="0" eb="1">
       <t>シルシ</t>
@@ -375,13 +343,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>確認ボタン</t>
-    <rPh sb="0" eb="2">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>確認ボタンを押下するとID:002で設定した音量を確認できる</t>
     <rPh sb="0" eb="2">
       <t>カクニン</t>
@@ -417,6 +378,67 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>ツイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>音量設定バー</t>
+    <rPh sb="0" eb="4">
+      <t>オンリョウセッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面名称</t>
+    <rPh sb="0" eb="4">
+      <t>ガメンメイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID:02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID:03</t>
+  </si>
+  <si>
+    <t>画面遷移</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Androidの戻るキーでTOP画面に遷移すること</t>
+    <rPh sb="8" eb="9">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大西</t>
+    <rPh sb="0" eb="2">
+      <t>オオニシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面項目詳細に画面遷移をtつつ追加</t>
+    <rPh sb="0" eb="4">
+      <t>ガメンコウモク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -830,13 +852,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:colOff>469900</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
@@ -880,13 +902,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:colOff>355600</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
@@ -948,14 +970,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -999,13 +1021,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:colOff>355600</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
@@ -1067,14 +1089,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
@@ -1118,13 +1140,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:colOff>355600</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
@@ -1554,7 +1576,7 @@
       </c>
       <c r="J17" s="12"/>
       <c r="K17" s="5">
-        <v>42655</v>
+        <v>42663</v>
       </c>
     </row>
     <row r="18" spans="6:11">
@@ -1603,7 +1625,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:L9"/>
+      <selection activeCell="G10" sqref="G10:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -1653,7 +1675,7 @@
       <c r="F2" s="25"/>
       <c r="G2" s="26">
         <f>表紙!K17</f>
-        <v>42655</v>
+        <v>42663</v>
       </c>
       <c r="H2" s="27"/>
       <c r="I2" s="25" t="s">
@@ -1736,11 +1758,11 @@
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="23" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F8" s="23"/>
       <c r="G8" s="23" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H8" s="23"/>
       <c r="I8" s="23"/>
@@ -1749,13 +1771,21 @@
       <c r="L8" s="23"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="21"/>
+      <c r="A9" s="21">
+        <v>1.2</v>
+      </c>
       <c r="B9" s="21"/>
-      <c r="C9" s="22"/>
+      <c r="C9" s="22">
+        <v>42663</v>
+      </c>
       <c r="D9" s="22"/>
-      <c r="E9" s="23"/>
+      <c r="E9" s="23" t="s">
+        <v>56</v>
+      </c>
       <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
+      <c r="G9" s="23" t="s">
+        <v>57</v>
+      </c>
       <c r="H9" s="23"/>
       <c r="I9" s="23"/>
       <c r="J9" s="23"/>
@@ -1939,13 +1969,13 @@
   <dimension ref="A1:L89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35:L35"/>
+      <selection activeCell="D39" sqref="D39:L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="12.1640625" customWidth="1"/>
     <col min="4" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
@@ -1996,7 +2026,7 @@
       <c r="F2" s="25"/>
       <c r="G2" s="26">
         <f>表紙!K17</f>
-        <v>42655</v>
+        <v>42663</v>
       </c>
       <c r="H2" s="27"/>
       <c r="I2" s="25" t="s">
@@ -2044,10 +2074,10 @@
         <v>37</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>21</v>
@@ -2065,19 +2095,19 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="1"/>
@@ -2087,19 +2117,19 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -2412,13 +2442,13 @@
     <row r="33" spans="1:12">
       <c r="A33" s="9"/>
       <c r="B33" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>50</v>
       </c>
       <c r="D33" s="32" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E33" s="20"/>
       <c r="F33" s="20"/>
@@ -2431,14 +2461,14 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="1"/>
-      <c r="B34" s="1" t="s">
-        <v>49</v>
+      <c r="B34" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D34" s="34" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E34" s="35"/>
       <c r="F34" s="35"/>
@@ -2452,8 +2482,12 @@
     <row r="35" spans="1:12">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="34"/>
+      <c r="C35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="34" t="s">
+        <v>55</v>
+      </c>
       <c r="E35" s="35"/>
       <c r="F35" s="35"/>
       <c r="G35" s="35"/>
